--- a/Iteration4/Milestones.xlsx
+++ b/Iteration4/Milestones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdw12_000\Desktop\Ara\BCPR280_Part1\Q4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdw12_000\Desktop\Ara\BCPR280_Part1\Iteration4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2629FF20-629A-49B1-861B-2ACDD358105D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09523EE-C1B7-47F5-B348-450E044C5205}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1575" windowWidth="16755" windowHeight="11835" xr2:uid="{B316364D-470A-40FB-AD70-D7BFC40F9F70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B316364D-470A-40FB-AD70-D7BFC40F9F70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,15 +77,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Drawing a design level class diagram &amp; Planning A Complex Algorithm</t>
+    <t>Writing code to make this work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create specrunner to test codes with Jasmine</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Writing code to make this work</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create specrunner to test codes with Jasmine</t>
+    <t>Drawing a design level class diagram &amp; Pseudocode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +481,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -534,20 +534,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>43568</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>43568</v>
+      </c>
       <c r="D3" s="1">
         <v>43568</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>43568</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -557,13 +561,17 @@
       <c r="B4" s="1">
         <v>43568</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>43568</v>
+      </c>
       <c r="D4" s="1">
         <v>43568</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>43572</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -573,13 +581,17 @@
       <c r="B5" s="1">
         <v>43568</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>43572</v>
+      </c>
       <c r="D5" s="1">
         <v>43568</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>43572</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
